--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>122.053985221966</v>
+        <v>107.5762443333333</v>
       </c>
       <c r="H2">
-        <v>122.053985221966</v>
+        <v>322.728733</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4573526774733012</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4573526774733012</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>5896.837139150784</v>
+        <v>2545.243362595974</v>
       </c>
       <c r="R2">
-        <v>5896.837139150784</v>
+        <v>22907.19026336377</v>
       </c>
       <c r="S2">
-        <v>0.9642802841836725</v>
+        <v>0.1371140556310248</v>
       </c>
       <c r="T2">
-        <v>0.9642802841836725</v>
+        <v>0.1371140556310248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>107.5762443333333</v>
+      </c>
+      <c r="H3">
+        <v>322.728733</v>
+      </c>
+      <c r="I3">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="J3">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.230717</v>
+      </c>
+      <c r="O3">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P3">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q3">
+        <v>8.273222787951223</v>
+      </c>
+      <c r="R3">
+        <v>74.45900509156101</v>
+      </c>
+      <c r="S3">
+        <v>0.0004456843484066768</v>
+      </c>
+      <c r="T3">
+        <v>0.0004456843484066769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>107.5762443333333</v>
+      </c>
+      <c r="H4">
+        <v>322.728733</v>
+      </c>
+      <c r="I4">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="J4">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N4">
+        <v>159.643573</v>
+      </c>
+      <c r="O4">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P4">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q4">
+        <v>5724.61867176478</v>
+      </c>
+      <c r="R4">
+        <v>51521.56804588302</v>
+      </c>
+      <c r="S4">
+        <v>0.308389246608697</v>
+      </c>
+      <c r="T4">
+        <v>0.308389246608697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>122.053985221966</v>
-      </c>
-      <c r="H3">
-        <v>122.053985221966</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="N3">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="O3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="P3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="Q3">
-        <v>218.4358119526905</v>
-      </c>
-      <c r="R3">
-        <v>218.4358119526905</v>
-      </c>
-      <c r="S3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="T3">
-        <v>0.03571971581632748</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>107.5762443333333</v>
+      </c>
+      <c r="H5">
+        <v>322.728733</v>
+      </c>
+      <c r="I5">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="J5">
+        <v>0.4573526774733012</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.903338</v>
+      </c>
+      <c r="O5">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P5">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q5">
+        <v>211.6863103567505</v>
+      </c>
+      <c r="R5">
+        <v>1905.176793210754</v>
+      </c>
+      <c r="S5">
+        <v>0.01140369088517263</v>
+      </c>
+      <c r="T5">
+        <v>0.01140369088517264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.307949</v>
+      </c>
+      <c r="H6">
+        <v>0.923847</v>
+      </c>
+      <c r="I6">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="J6">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N6">
+        <v>70.979705</v>
+      </c>
+      <c r="O6">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P6">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q6">
+        <v>7.286043058348333</v>
+      </c>
+      <c r="R6">
+        <v>65.57438752513499</v>
+      </c>
+      <c r="S6">
+        <v>0.0003925042799103831</v>
+      </c>
+      <c r="T6">
+        <v>0.0003925042799103833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.307949</v>
+      </c>
+      <c r="H7">
+        <v>0.923847</v>
+      </c>
+      <c r="I7">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="J7">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.230717</v>
+      </c>
+      <c r="O7">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P7">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q7">
+        <v>0.02368302314433333</v>
+      </c>
+      <c r="R7">
+        <v>0.213147208299</v>
+      </c>
+      <c r="S7">
+        <v>1.275821165332877E-06</v>
+      </c>
+      <c r="T7">
+        <v>1.275821165332878E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.307949</v>
+      </c>
+      <c r="H8">
+        <v>0.923847</v>
+      </c>
+      <c r="I8">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="J8">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N8">
+        <v>159.643573</v>
+      </c>
+      <c r="O8">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P8">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q8">
+        <v>16.38735955392567</v>
+      </c>
+      <c r="R8">
+        <v>147.486235985331</v>
+      </c>
+      <c r="S8">
+        <v>0.0008827986205731017</v>
+      </c>
+      <c r="T8">
+        <v>0.0008827986205731019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.307949</v>
+      </c>
+      <c r="H9">
+        <v>0.923847</v>
+      </c>
+      <c r="I9">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="J9">
+        <v>0.001309223058938718</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.903338</v>
+      </c>
+      <c r="O9">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P9">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q9">
+        <v>0.6059756779206666</v>
+      </c>
+      <c r="R9">
+        <v>5.453781101285999</v>
+      </c>
+      <c r="S9">
+        <v>3.26443372899E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.264433728990001E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>127.2257993333333</v>
+      </c>
+      <c r="H10">
+        <v>381.677398</v>
+      </c>
+      <c r="I10">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="J10">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>3010.149901689732</v>
+      </c>
+      <c r="R10">
+        <v>27091.34911520759</v>
+      </c>
+      <c r="S10">
+        <v>0.1621588988870005</v>
+      </c>
+      <c r="T10">
+        <v>0.1621588988870005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>127.2257993333333</v>
+      </c>
+      <c r="H11">
+        <v>381.677398</v>
+      </c>
+      <c r="I11">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="J11">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>9.784384914929555</v>
+      </c>
+      <c r="R11">
+        <v>88.059464234366</v>
+      </c>
+      <c r="S11">
+        <v>0.0005270917183230346</v>
+      </c>
+      <c r="T11">
+        <v>0.0005270917183230348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>127.2257993333333</v>
+      </c>
+      <c r="H12">
+        <v>381.677398</v>
+      </c>
+      <c r="I12">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="J12">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>6770.26039445145</v>
+      </c>
+      <c r="R12">
+        <v>60932.34355006305</v>
+      </c>
+      <c r="S12">
+        <v>0.3647187039177816</v>
+      </c>
+      <c r="T12">
+        <v>0.3647187039177817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>127.2257993333333</v>
+      </c>
+      <c r="H13">
+        <v>381.677398</v>
+      </c>
+      <c r="I13">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="J13">
+        <v>0.5408913494738096</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>250.3522985949471</v>
+      </c>
+      <c r="R13">
+        <v>2253.170687354524</v>
+      </c>
+      <c r="S13">
+        <v>0.0134866549507044</v>
+      </c>
+      <c r="T13">
+        <v>0.0134866549507044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1050823333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.315247</v>
+      </c>
+      <c r="I14">
+        <v>0.0004467499939505719</v>
+      </c>
+      <c r="J14">
+        <v>0.000446749993950572</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>2.486237673570555</v>
+      </c>
+      <c r="R14">
+        <v>22.376139062135</v>
+      </c>
+      <c r="S14">
+        <v>0.0001339353775342763</v>
+      </c>
+      <c r="T14">
+        <v>0.0001339353775342764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1050823333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.315247</v>
+      </c>
+      <c r="I15">
+        <v>0.0004467499939505719</v>
+      </c>
+      <c r="J15">
+        <v>0.000446749993950572</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>0.008081426899888888</v>
+      </c>
+      <c r="R15">
+        <v>0.07273284209899999</v>
+      </c>
+      <c r="S15">
+        <v>4.353521686033441E-07</v>
+      </c>
+      <c r="T15">
+        <v>4.353521686033443E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1050823333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.315247</v>
+      </c>
+      <c r="I16">
+        <v>0.0004467499939505719</v>
+      </c>
+      <c r="J16">
+        <v>0.000446749993950572</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>5.591906384170112</v>
+      </c>
+      <c r="R16">
+        <v>50.327157457531</v>
+      </c>
+      <c r="S16">
+        <v>0.0003012399420464737</v>
+      </c>
+      <c r="T16">
+        <v>0.0003012399420464738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1050823333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.315247</v>
+      </c>
+      <c r="I17">
+        <v>0.0004467499939505719</v>
+      </c>
+      <c r="J17">
+        <v>0.000446749993950572</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>0.2067788438317778</v>
+      </c>
+      <c r="R17">
+        <v>1.861009594486</v>
+      </c>
+      <c r="S17">
+        <v>1.11393222012185E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.11393222012185E-05</v>
       </c>
     </row>
   </sheetData>
